--- a/PhoenixCI/Excel_Template/30633.xlsx
+++ b/PhoenixCI/Excel_Template/30633.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D749BE8-4110-4895-9ACE-741347DB859B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1A9333-28D2-4895-B9CC-7279F497532E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="23655" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="30633_交易人交易量結構" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -443,16 +442,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -464,10 +478,40 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -479,25 +523,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -509,40 +538,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -563,107 +562,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1570,8 +1569,8 @@
       <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="32"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="29.25" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -1900,34 +1899,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="39.75" hidden="1" customHeight="1">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A19:H19"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="H3:H4"/>
@@ -1938,6 +1936,7 @@
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PhoenixCI/Excel_Template/30633.xlsx
+++ b/PhoenixCI/Excel_Template/30633.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1A9333-28D2-4895-B9CC-7279F497532E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D749BE8-4110-4895-9ACE-741347DB859B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="23655" windowHeight="9795"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30633_交易人交易量結構" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -442,16 +443,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -466,6 +482,21 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -490,21 +521,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -527,21 +543,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -562,107 +563,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1569,8 +1570,8 @@
       <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="34"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="29.25" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -1899,33 +1900,34 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="39.75" hidden="1" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="H3:H4"/>
@@ -1936,7 +1938,6 @@
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
